--- a/src/static/ATF_5.xlsx
+++ b/src/static/ATF_5.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Универ\diploma-work\excel-parser-server\src\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E598DD0-0178-4A7C-B210-92F13A700FD3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="102">
   <si>
     <r>
       <rPr>
@@ -1101,13 +1100,38 @@
   <si>
     <t>ЭЛЕКТРООБЕСПЕЧ.ПРОМЫШ. И ТРАНСП.УСТАНОВОК (лек.)
 Доц. Стасенко И.С. а. 202/2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>РАСПИСАНИЕ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>на осенний семестр 2021/2022 учебного года</t>
+    </r>
+  </si>
+  <si>
+    <t>занятий студентов 5 курса Белорусско-Российского университета</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1151,6 +1175,32 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="7.5"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7.5"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="6"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="6"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1160,7 +1210,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1301,11 +1351,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1438,6 +1497,174 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1450,15 +1677,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1474,167 +1695,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="14"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1729,23 +1803,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1781,23 +1838,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1973,11 +2013,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D52" zoomScale="185" zoomScaleNormal="185" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67:F68"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1995,18 +2035,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44"/>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
+      <c r="A1" s="100"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
     </row>
     <row r="2" spans="1:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -2025,10 +2065,12 @@
     <row r="3" spans="1:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="110" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="110"/>
+      <c r="F3" s="3"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -2039,10 +2081,12 @@
     <row r="4" spans="1:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="114" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -2053,10 +2097,12 @@
     <row r="5" spans="1:12" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="113" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -2065,46 +2111,46 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="53"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="107"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="54" t="s">
+      <c r="A7" s="102"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="54" t="s">
+      <c r="D7" s="109"/>
+      <c r="E7" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="55"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="57"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="91"/>
       <c r="I7" s="4"/>
       <c r="J7" s="5"/>
       <c r="K7" s="6"/>
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
-      <c r="B8" s="50"/>
+      <c r="A8" s="103"/>
+      <c r="B8" s="79"/>
       <c r="C8" s="7" t="s">
         <v>5</v>
       </c>
@@ -2117,10 +2163,10 @@
       <c r="F8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="58" t="s">
+      <c r="G8" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="59"/>
+      <c r="H8" s="66"/>
       <c r="I8" s="11" t="s">
         <v>8</v>
       </c>
@@ -2132,31 +2178,31 @@
       </c>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="60" t="s">
+    <row r="9" spans="1:12" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="92" t="s">
+      <c r="B9" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="94"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="64"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="68"/>
       <c r="I9" s="14"/>
       <c r="J9" s="15"/>
       <c r="K9" s="16"/>
       <c r="L9" s="17"/>
     </row>
-    <row r="10" spans="1:12" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="61"/>
-      <c r="B10" s="93"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="97"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="97"/>
+    <row r="10" spans="1:12" ht="7.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="70"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="47"/>
       <c r="G10" s="21"/>
       <c r="H10" s="22"/>
       <c r="I10" s="34"/>
@@ -2165,36 +2211,36 @@
       <c r="L10" s="17"/>
     </row>
     <row r="11" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="61"/>
-      <c r="B11" s="65" t="s">
+      <c r="A11" s="70"/>
+      <c r="B11" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="106" t="s">
+      <c r="C11" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="107"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="72"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="93"/>
       <c r="I11" s="23"/>
       <c r="J11" s="24"/>
       <c r="K11" s="25"/>
       <c r="L11" s="3"/>
     </row>
     <row r="12" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="61"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="106" t="s">
+      <c r="A12" s="70"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="107"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="73" t="s">
+      <c r="D12" s="83"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="74"/>
+      <c r="H12" s="95"/>
       <c r="I12" s="19" t="s">
         <v>17</v>
       </c>
@@ -2207,22 +2253,22 @@
       <c r="L12" s="3"/>
     </row>
     <row r="13" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="61"/>
-      <c r="B13" s="65" t="s">
+      <c r="A13" s="70"/>
+      <c r="B13" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="106" t="s">
+      <c r="C13" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="107"/>
-      <c r="E13" s="98" t="s">
+      <c r="D13" s="83"/>
+      <c r="E13" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="F13" s="99"/>
-      <c r="G13" s="75" t="s">
+      <c r="F13" s="49"/>
+      <c r="G13" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="76"/>
+      <c r="H13" s="97"/>
       <c r="I13" s="28" t="s">
         <v>22</v>
       </c>
@@ -2235,194 +2281,194 @@
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="61"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="106" t="s">
+      <c r="A14" s="70"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="107"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="78"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="89"/>
       <c r="I14" s="31"/>
       <c r="J14" s="32"/>
       <c r="K14" s="33"/>
       <c r="L14" s="3"/>
     </row>
     <row r="15" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="61"/>
-      <c r="B15" s="65" t="s">
+      <c r="A15" s="70"/>
+      <c r="B15" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="98" t="s">
+      <c r="C15" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="99"/>
-      <c r="E15" s="98" t="s">
+      <c r="D15" s="49"/>
+      <c r="E15" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="F15" s="99"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="68"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="75"/>
       <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="61"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="70"/>
+      <c r="A16" s="70"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="77"/>
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
-      <c r="B17" s="65" t="s">
+      <c r="A17" s="70"/>
+      <c r="B17" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="98" t="s">
+      <c r="C17" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="D17" s="99"/>
+      <c r="D17" s="49"/>
       <c r="E17" s="35" t="s">
         <v>28</v>
       </c>
       <c r="F17" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="67"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="68"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="75"/>
       <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="62"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="101"/>
+      <c r="A18" s="71"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="51"/>
       <c r="E18" s="35" t="s">
         <v>29</v>
       </c>
       <c r="F18" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="69"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="70"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="77"/>
       <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="79"/>
-      <c r="B19" s="65" t="s">
+      <c r="A19" s="80"/>
+      <c r="B19" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="106" t="s">
+      <c r="C19" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="107"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="68"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="75"/>
       <c r="L19" s="3"/>
     </row>
     <row r="20" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="80"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="108" t="s">
+      <c r="A20" s="81"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="98" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="109"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="70"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="77"/>
       <c r="L20" s="3"/>
     </row>
     <row r="21" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="81" t="s">
+      <c r="A21" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="67"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="68"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="75"/>
       <c r="L21" s="3"/>
     </row>
     <row r="22" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="82"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="106" t="s">
+      <c r="A22" s="59"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="107"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="80"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="70"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="77"/>
       <c r="L22" s="3"/>
     </row>
     <row r="23" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="82"/>
-      <c r="B23" s="65" t="s">
+      <c r="A23" s="59"/>
+      <c r="B23" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="67"/>
-      <c r="D23" s="68"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="75"/>
       <c r="E23" s="35" t="s">
         <v>34</v>
       </c>
       <c r="F23" s="4"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="72"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="93"/>
       <c r="I23" s="23"/>
       <c r="J23" s="24"/>
       <c r="K23" s="25"/>
       <c r="L23" s="3"/>
     </row>
     <row r="24" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="82"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="70"/>
+      <c r="A24" s="59"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="77"/>
       <c r="E24" s="4"/>
       <c r="F24" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="73" t="s">
+      <c r="G24" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="H24" s="74"/>
+      <c r="H24" s="95"/>
       <c r="I24" s="19" t="s">
         <v>36</v>
       </c>
@@ -2435,20 +2481,20 @@
       <c r="L24" s="3"/>
     </row>
     <row r="25" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="82"/>
-      <c r="B25" s="65" t="s">
+      <c r="A25" s="59"/>
+      <c r="B25" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="67"/>
-      <c r="D25" s="68"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="75"/>
       <c r="E25" s="35" t="s">
         <v>34</v>
       </c>
       <c r="F25" s="4"/>
-      <c r="G25" s="75" t="s">
+      <c r="G25" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="H25" s="76"/>
+      <c r="H25" s="97"/>
       <c r="I25" s="18" t="s">
         <v>40</v>
       </c>
@@ -2461,190 +2507,190 @@
       <c r="L25" s="3"/>
     </row>
     <row r="26" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="82"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="70"/>
+      <c r="A26" s="59"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="77"/>
       <c r="E26" s="4"/>
       <c r="F26" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G26" s="77"/>
-      <c r="H26" s="78"/>
+      <c r="G26" s="88"/>
+      <c r="H26" s="89"/>
       <c r="I26" s="31"/>
       <c r="J26" s="32"/>
       <c r="K26" s="33"/>
       <c r="L26" s="3"/>
     </row>
     <row r="27" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="82"/>
-      <c r="B27" s="65" t="s">
+      <c r="A27" s="59"/>
+      <c r="B27" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="67"/>
-      <c r="D27" s="68"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="75"/>
       <c r="E27" s="35" t="s">
         <v>42</v>
       </c>
       <c r="F27" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G27" s="67"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="79"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="68"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="80"/>
+      <c r="J27" s="74"/>
+      <c r="K27" s="75"/>
       <c r="L27" s="3"/>
     </row>
     <row r="28" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="82"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="70"/>
+      <c r="A28" s="59"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="77"/>
       <c r="E28" s="35" t="s">
         <v>34</v>
       </c>
       <c r="F28" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="G28" s="69"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="80"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="70"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="77"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="77"/>
       <c r="L28" s="3"/>
     </row>
     <row r="29" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="82"/>
-      <c r="B29" s="65" t="s">
+      <c r="A29" s="59"/>
+      <c r="B29" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="98" t="s">
+      <c r="C29" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="D29" s="99"/>
+      <c r="D29" s="49"/>
       <c r="E29" s="35" t="s">
         <v>43</v>
       </c>
       <c r="F29" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G29" s="67"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="79"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="68"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="80"/>
+      <c r="J29" s="74"/>
+      <c r="K29" s="75"/>
       <c r="L29" s="3"/>
     </row>
     <row r="30" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="82"/>
-      <c r="B30" s="66"/>
-      <c r="C30" s="100"/>
-      <c r="D30" s="101"/>
+      <c r="A30" s="59"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="51"/>
       <c r="E30" s="35" t="s">
         <v>34</v>
       </c>
       <c r="F30" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="G30" s="69"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="70"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="81"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="77"/>
       <c r="L30" s="3"/>
     </row>
     <row r="31" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="82"/>
-      <c r="B31" s="65" t="s">
+      <c r="A31" s="59"/>
+      <c r="B31" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="102"/>
-      <c r="D31" s="103"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="79"/>
-      <c r="J31" s="67"/>
-      <c r="K31" s="68"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="75"/>
+      <c r="I31" s="80"/>
+      <c r="J31" s="74"/>
+      <c r="K31" s="75"/>
       <c r="L31" s="3"/>
     </row>
     <row r="32" spans="1:12" ht="7.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="83"/>
-      <c r="B32" s="66"/>
-      <c r="C32" s="104"/>
-      <c r="D32" s="105"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="80"/>
-      <c r="J32" s="69"/>
-      <c r="K32" s="70"/>
+      <c r="A32" s="60"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="76"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="81"/>
+      <c r="J32" s="76"/>
+      <c r="K32" s="77"/>
       <c r="L32" s="3"/>
     </row>
     <row r="33" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="81" t="s">
+      <c r="A33" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="65" t="s">
+      <c r="B33" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="79"/>
+      <c r="C33" s="80"/>
       <c r="D33" s="4"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="68"/>
-      <c r="I33" s="79"/>
-      <c r="J33" s="67"/>
-      <c r="K33" s="68"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="80"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="75"/>
       <c r="L33" s="3"/>
     </row>
     <row r="34" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="82"/>
-      <c r="B34" s="66"/>
-      <c r="C34" s="80"/>
+      <c r="A34" s="59"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="81"/>
       <c r="D34" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E34" s="69"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="69"/>
-      <c r="H34" s="70"/>
-      <c r="I34" s="80"/>
-      <c r="J34" s="69"/>
-      <c r="K34" s="70"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="77"/>
+      <c r="I34" s="81"/>
+      <c r="J34" s="76"/>
+      <c r="K34" s="77"/>
       <c r="L34" s="3"/>
     </row>
     <row r="35" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="82"/>
-      <c r="B35" s="65" t="s">
+      <c r="A35" s="59"/>
+      <c r="B35" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="98" t="s">
+      <c r="C35" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="D35" s="99"/>
-      <c r="E35" s="106" t="s">
+      <c r="D35" s="49"/>
+      <c r="E35" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="F35" s="107"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="72"/>
+      <c r="F35" s="83"/>
+      <c r="G35" s="92"/>
+      <c r="H35" s="93"/>
       <c r="I35" s="23"/>
       <c r="J35" s="24"/>
       <c r="K35" s="25"/>
       <c r="L35" s="3"/>
     </row>
     <row r="36" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="82"/>
-      <c r="B36" s="66"/>
-      <c r="C36" s="100"/>
-      <c r="D36" s="101"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="57"/>
+      <c r="A36" s="59"/>
+      <c r="B36" s="73"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="90"/>
+      <c r="F36" s="91"/>
       <c r="G36" s="84" t="s">
         <v>23</v>
       </c>
@@ -2661,18 +2707,18 @@
       <c r="L36" s="3"/>
     </row>
     <row r="37" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="82"/>
-      <c r="B37" s="65" t="s">
+      <c r="A37" s="59"/>
+      <c r="B37" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="98" t="s">
+      <c r="C37" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="D37" s="99"/>
-      <c r="E37" s="98" t="s">
+      <c r="D37" s="49"/>
+      <c r="E37" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="F37" s="99"/>
+      <c r="F37" s="49"/>
       <c r="G37" s="86" t="s">
         <v>49</v>
       </c>
@@ -2689,44 +2735,44 @@
       <c r="L37" s="3"/>
     </row>
     <row r="38" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="82"/>
-      <c r="B38" s="66"/>
-      <c r="C38" s="100"/>
-      <c r="D38" s="101"/>
-      <c r="E38" s="100"/>
-      <c r="F38" s="101"/>
-      <c r="G38" s="77"/>
-      <c r="H38" s="78"/>
+      <c r="A38" s="59"/>
+      <c r="B38" s="73"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="88"/>
+      <c r="H38" s="89"/>
       <c r="I38" s="31"/>
       <c r="J38" s="32"/>
       <c r="K38" s="33"/>
       <c r="L38" s="3"/>
     </row>
     <row r="39" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="82"/>
-      <c r="B39" s="65" t="s">
+      <c r="A39" s="59"/>
+      <c r="B39" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="106" t="s">
+      <c r="C39" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="107"/>
+      <c r="D39" s="83"/>
       <c r="E39" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G39" s="67"/>
-      <c r="H39" s="68"/>
-      <c r="I39" s="79"/>
-      <c r="J39" s="67"/>
-      <c r="K39" s="68"/>
+      <c r="G39" s="74"/>
+      <c r="H39" s="75"/>
+      <c r="I39" s="80"/>
+      <c r="J39" s="74"/>
+      <c r="K39" s="75"/>
       <c r="L39" s="3"/>
     </row>
     <row r="40" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="82"/>
-      <c r="B40" s="66"/>
+      <c r="A40" s="59"/>
+      <c r="B40" s="73"/>
       <c r="C40" s="7" t="s">
         <v>45</v>
       </c>
@@ -2737,36 +2783,36 @@
       <c r="F40" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G40" s="69"/>
-      <c r="H40" s="70"/>
-      <c r="I40" s="80"/>
-      <c r="J40" s="69"/>
-      <c r="K40" s="70"/>
+      <c r="G40" s="76"/>
+      <c r="H40" s="77"/>
+      <c r="I40" s="81"/>
+      <c r="J40" s="76"/>
+      <c r="K40" s="77"/>
       <c r="L40" s="3"/>
     </row>
     <row r="41" spans="1:12" ht="7.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="82"/>
-      <c r="B41" s="92" t="s">
+      <c r="A41" s="59"/>
+      <c r="B41" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="94"/>
-      <c r="D41" s="95"/>
-      <c r="E41" s="94"/>
-      <c r="F41" s="95"/>
-      <c r="G41" s="63"/>
-      <c r="H41" s="64"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="68"/>
       <c r="I41" s="14"/>
       <c r="J41" s="15"/>
       <c r="K41" s="16"/>
       <c r="L41" s="17"/>
     </row>
     <row r="42" spans="1:12" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="83"/>
-      <c r="B42" s="93"/>
-      <c r="C42" s="96"/>
-      <c r="D42" s="97"/>
-      <c r="E42" s="96"/>
-      <c r="F42" s="97"/>
+      <c r="A42" s="60"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="47"/>
       <c r="G42" s="15"/>
       <c r="H42" s="16"/>
       <c r="I42" s="14"/>
@@ -2775,30 +2821,30 @@
       <c r="L42" s="17"/>
     </row>
     <row r="43" spans="1:12" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="81" t="s">
+      <c r="A43" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="B43" s="92" t="s">
+      <c r="B43" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="94"/>
-      <c r="D43" s="95"/>
-      <c r="E43" s="94"/>
-      <c r="F43" s="95"/>
-      <c r="G43" s="63"/>
-      <c r="H43" s="64"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="68"/>
       <c r="I43" s="14"/>
       <c r="J43" s="15"/>
       <c r="K43" s="16"/>
       <c r="L43" s="17"/>
     </row>
     <row r="44" spans="1:12" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="82"/>
-      <c r="B44" s="93"/>
-      <c r="C44" s="96"/>
-      <c r="D44" s="97"/>
-      <c r="E44" s="96"/>
-      <c r="F44" s="97"/>
+      <c r="A44" s="59"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="47"/>
       <c r="G44" s="21"/>
       <c r="H44" s="22"/>
       <c r="I44" s="34"/>
@@ -2807,66 +2853,66 @@
       <c r="L44" s="17"/>
     </row>
     <row r="45" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="82"/>
-      <c r="B45" s="65" t="s">
+      <c r="A45" s="59"/>
+      <c r="B45" s="72" t="s">
         <v>13</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E45" s="67"/>
-      <c r="F45" s="68"/>
-      <c r="G45" s="67"/>
-      <c r="H45" s="68"/>
-      <c r="I45" s="79"/>
-      <c r="J45" s="67"/>
-      <c r="K45" s="68"/>
+      <c r="E45" s="74"/>
+      <c r="F45" s="75"/>
+      <c r="G45" s="74"/>
+      <c r="H45" s="75"/>
+      <c r="I45" s="80"/>
+      <c r="J45" s="74"/>
+      <c r="K45" s="75"/>
       <c r="L45" s="3"/>
     </row>
     <row r="46" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="82"/>
-      <c r="B46" s="66"/>
+      <c r="A46" s="59"/>
+      <c r="B46" s="73"/>
       <c r="C46" s="8" t="s">
         <v>55</v>
       </c>
       <c r="D46" s="4"/>
-      <c r="E46" s="69"/>
-      <c r="F46" s="70"/>
-      <c r="G46" s="69"/>
-      <c r="H46" s="70"/>
-      <c r="I46" s="80"/>
-      <c r="J46" s="69"/>
-      <c r="K46" s="70"/>
+      <c r="E46" s="76"/>
+      <c r="F46" s="77"/>
+      <c r="G46" s="76"/>
+      <c r="H46" s="77"/>
+      <c r="I46" s="81"/>
+      <c r="J46" s="76"/>
+      <c r="K46" s="77"/>
       <c r="L46" s="3"/>
     </row>
     <row r="47" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="82"/>
-      <c r="B47" s="65" t="s">
+      <c r="A47" s="59"/>
+      <c r="B47" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="C47" s="98" t="s">
+      <c r="C47" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="D47" s="99"/>
-      <c r="E47" s="98" t="s">
+      <c r="D47" s="49"/>
+      <c r="E47" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="F47" s="99"/>
-      <c r="G47" s="71"/>
-      <c r="H47" s="72"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="92"/>
+      <c r="H47" s="93"/>
       <c r="I47" s="23"/>
       <c r="J47" s="24"/>
       <c r="K47" s="25"/>
       <c r="L47" s="3"/>
     </row>
     <row r="48" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="82"/>
-      <c r="B48" s="66"/>
-      <c r="C48" s="100"/>
-      <c r="D48" s="101"/>
-      <c r="E48" s="100"/>
-      <c r="F48" s="101"/>
+      <c r="A48" s="59"/>
+      <c r="B48" s="73"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="51"/>
       <c r="G48" s="84" t="s">
         <v>56</v>
       </c>
@@ -2883,18 +2929,18 @@
       <c r="L48" s="3"/>
     </row>
     <row r="49" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="82"/>
-      <c r="B49" s="65" t="s">
+      <c r="A49" s="59"/>
+      <c r="B49" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="C49" s="98" t="s">
+      <c r="C49" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="D49" s="99"/>
-      <c r="E49" s="106" t="s">
+      <c r="D49" s="49"/>
+      <c r="E49" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="F49" s="107"/>
+      <c r="F49" s="83"/>
       <c r="G49" s="86" t="s">
         <v>60</v>
       </c>
@@ -2911,24 +2957,24 @@
       <c r="L49" s="3"/>
     </row>
     <row r="50" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="82"/>
-      <c r="B50" s="66"/>
-      <c r="C50" s="100"/>
-      <c r="D50" s="101"/>
-      <c r="E50" s="106" t="s">
+      <c r="A50" s="59"/>
+      <c r="B50" s="73"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="F50" s="107"/>
-      <c r="G50" s="77"/>
-      <c r="H50" s="78"/>
+      <c r="F50" s="83"/>
+      <c r="G50" s="88"/>
+      <c r="H50" s="89"/>
       <c r="I50" s="31"/>
       <c r="J50" s="32"/>
       <c r="K50" s="33"/>
       <c r="L50" s="3"/>
     </row>
     <row r="51" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="82"/>
-      <c r="B51" s="65" t="s">
+      <c r="A51" s="59"/>
+      <c r="B51" s="72" t="s">
         <v>27</v>
       </c>
       <c r="C51" s="4"/>
@@ -2939,56 +2985,56 @@
       <c r="F51" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="G51" s="67"/>
-      <c r="H51" s="68"/>
-      <c r="I51" s="79"/>
-      <c r="J51" s="67"/>
-      <c r="K51" s="68"/>
+      <c r="G51" s="74"/>
+      <c r="H51" s="75"/>
+      <c r="I51" s="80"/>
+      <c r="J51" s="74"/>
+      <c r="K51" s="75"/>
       <c r="L51" s="3"/>
     </row>
     <row r="52" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="82"/>
-      <c r="B52" s="66"/>
-      <c r="C52" s="106" t="s">
+      <c r="A52" s="59"/>
+      <c r="B52" s="73"/>
+      <c r="C52" s="82" t="s">
         <v>64</v>
       </c>
-      <c r="D52" s="107"/>
+      <c r="D52" s="83"/>
       <c r="E52" s="35" t="s">
         <v>42</v>
       </c>
       <c r="F52" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="G52" s="69"/>
-      <c r="H52" s="70"/>
-      <c r="I52" s="80"/>
-      <c r="J52" s="69"/>
-      <c r="K52" s="70"/>
+      <c r="G52" s="76"/>
+      <c r="H52" s="77"/>
+      <c r="I52" s="81"/>
+      <c r="J52" s="76"/>
+      <c r="K52" s="77"/>
       <c r="L52" s="3"/>
     </row>
     <row r="53" spans="1:12" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="82"/>
-      <c r="B53" s="92" t="s">
+      <c r="A53" s="59"/>
+      <c r="B53" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C53" s="94"/>
-      <c r="D53" s="95"/>
-      <c r="E53" s="94"/>
-      <c r="F53" s="95"/>
-      <c r="G53" s="63"/>
-      <c r="H53" s="64"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="45"/>
+      <c r="G53" s="67"/>
+      <c r="H53" s="68"/>
       <c r="I53" s="14"/>
       <c r="J53" s="15"/>
       <c r="K53" s="16"/>
       <c r="L53" s="17"/>
     </row>
     <row r="54" spans="1:12" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="83"/>
-      <c r="B54" s="93"/>
-      <c r="C54" s="96"/>
-      <c r="D54" s="97"/>
-      <c r="E54" s="96"/>
-      <c r="F54" s="97"/>
+      <c r="A54" s="60"/>
+      <c r="B54" s="57"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="47"/>
+      <c r="E54" s="46"/>
+      <c r="F54" s="47"/>
       <c r="G54" s="15"/>
       <c r="H54" s="16"/>
       <c r="I54" s="14"/>
@@ -2997,30 +3043,30 @@
       <c r="L54" s="17"/>
     </row>
     <row r="55" spans="1:12" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="81" t="s">
+      <c r="A55" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="B55" s="92" t="s">
+      <c r="B55" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C55" s="94"/>
-      <c r="D55" s="95"/>
-      <c r="E55" s="94"/>
-      <c r="F55" s="95"/>
-      <c r="G55" s="63"/>
-      <c r="H55" s="64"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="45"/>
+      <c r="G55" s="67"/>
+      <c r="H55" s="68"/>
       <c r="I55" s="14"/>
       <c r="J55" s="15"/>
       <c r="K55" s="16"/>
       <c r="L55" s="17"/>
     </row>
     <row r="56" spans="1:12" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="82"/>
-      <c r="B56" s="93"/>
-      <c r="C56" s="96"/>
-      <c r="D56" s="97"/>
-      <c r="E56" s="96"/>
-      <c r="F56" s="97"/>
+      <c r="A56" s="59"/>
+      <c r="B56" s="57"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="47"/>
       <c r="G56" s="21"/>
       <c r="H56" s="22"/>
       <c r="I56" s="34"/>
@@ -3029,66 +3075,66 @@
       <c r="L56" s="17"/>
     </row>
     <row r="57" spans="1:12" ht="7.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="82"/>
-      <c r="B57" s="65" t="s">
+      <c r="A57" s="59"/>
+      <c r="B57" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="102"/>
-      <c r="D57" s="103"/>
-      <c r="E57" s="56"/>
-      <c r="F57" s="57"/>
-      <c r="G57" s="67"/>
-      <c r="H57" s="68"/>
-      <c r="I57" s="79"/>
-      <c r="J57" s="67"/>
-      <c r="K57" s="68"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="90"/>
+      <c r="F57" s="91"/>
+      <c r="G57" s="74"/>
+      <c r="H57" s="75"/>
+      <c r="I57" s="80"/>
+      <c r="J57" s="74"/>
+      <c r="K57" s="75"/>
       <c r="L57" s="3"/>
     </row>
     <row r="58" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="82"/>
-      <c r="B58" s="66"/>
-      <c r="C58" s="104"/>
-      <c r="D58" s="105"/>
-      <c r="E58" s="106" t="s">
+      <c r="A58" s="59"/>
+      <c r="B58" s="73"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="55"/>
+      <c r="E58" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="F58" s="107"/>
-      <c r="G58" s="69"/>
-      <c r="H58" s="70"/>
-      <c r="I58" s="80"/>
-      <c r="J58" s="69"/>
-      <c r="K58" s="70"/>
+      <c r="F58" s="83"/>
+      <c r="G58" s="76"/>
+      <c r="H58" s="77"/>
+      <c r="I58" s="81"/>
+      <c r="J58" s="76"/>
+      <c r="K58" s="77"/>
       <c r="L58" s="3"/>
     </row>
     <row r="59" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="82"/>
-      <c r="B59" s="65" t="s">
+      <c r="A59" s="59"/>
+      <c r="B59" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="C59" s="106" t="s">
+      <c r="C59" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="D59" s="107"/>
-      <c r="E59" s="98" t="s">
+      <c r="D59" s="83"/>
+      <c r="E59" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="F59" s="99"/>
-      <c r="G59" s="71"/>
-      <c r="H59" s="72"/>
+      <c r="F59" s="49"/>
+      <c r="G59" s="92"/>
+      <c r="H59" s="93"/>
       <c r="I59" s="23"/>
       <c r="J59" s="24"/>
       <c r="K59" s="25"/>
       <c r="L59" s="3"/>
     </row>
     <row r="60" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="82"/>
-      <c r="B60" s="66"/>
-      <c r="C60" s="106" t="s">
+      <c r="A60" s="59"/>
+      <c r="B60" s="73"/>
+      <c r="C60" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="D60" s="107"/>
-      <c r="E60" s="100"/>
-      <c r="F60" s="101"/>
+      <c r="D60" s="83"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="51"/>
       <c r="G60" s="84" t="s">
         <v>69</v>
       </c>
@@ -3105,18 +3151,18 @@
       <c r="L60" s="3"/>
     </row>
     <row r="61" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="82"/>
-      <c r="B61" s="65" t="s">
+      <c r="A61" s="59"/>
+      <c r="B61" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="C61" s="98" t="s">
+      <c r="C61" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="D61" s="99"/>
-      <c r="E61" s="98" t="s">
+      <c r="D61" s="49"/>
+      <c r="E61" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="F61" s="99"/>
+      <c r="F61" s="49"/>
       <c r="G61" s="86" t="s">
         <v>72</v>
       </c>
@@ -3133,118 +3179,118 @@
       <c r="L61" s="3"/>
     </row>
     <row r="62" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="82"/>
-      <c r="B62" s="66"/>
-      <c r="C62" s="100"/>
-      <c r="D62" s="101"/>
-      <c r="E62" s="100"/>
-      <c r="F62" s="101"/>
-      <c r="G62" s="77"/>
-      <c r="H62" s="78"/>
+      <c r="A62" s="59"/>
+      <c r="B62" s="73"/>
+      <c r="C62" s="50"/>
+      <c r="D62" s="51"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="51"/>
+      <c r="G62" s="88"/>
+      <c r="H62" s="89"/>
       <c r="I62" s="31"/>
       <c r="J62" s="32"/>
       <c r="K62" s="33"/>
       <c r="L62" s="3"/>
     </row>
     <row r="63" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="82"/>
-      <c r="B63" s="65" t="s">
+      <c r="A63" s="59"/>
+      <c r="B63" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="C63" s="98" t="s">
+      <c r="C63" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="D63" s="99"/>
+      <c r="D63" s="49"/>
       <c r="E63" s="35" t="s">
         <v>74</v>
       </c>
       <c r="F63" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="G63" s="67"/>
-      <c r="H63" s="68"/>
-      <c r="I63" s="79"/>
-      <c r="J63" s="67"/>
-      <c r="K63" s="68"/>
+      <c r="G63" s="74"/>
+      <c r="H63" s="75"/>
+      <c r="I63" s="80"/>
+      <c r="J63" s="74"/>
+      <c r="K63" s="75"/>
       <c r="L63" s="3"/>
     </row>
     <row r="64" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="82"/>
-      <c r="B64" s="66"/>
-      <c r="C64" s="100"/>
-      <c r="D64" s="101"/>
+      <c r="A64" s="59"/>
+      <c r="B64" s="73"/>
+      <c r="C64" s="50"/>
+      <c r="D64" s="51"/>
       <c r="E64" s="35" t="s">
         <v>28</v>
       </c>
       <c r="F64" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="G64" s="69"/>
-      <c r="H64" s="70"/>
-      <c r="I64" s="80"/>
-      <c r="J64" s="69"/>
-      <c r="K64" s="70"/>
+      <c r="G64" s="76"/>
+      <c r="H64" s="77"/>
+      <c r="I64" s="81"/>
+      <c r="J64" s="76"/>
+      <c r="K64" s="77"/>
       <c r="L64" s="3"/>
     </row>
     <row r="65" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="82"/>
-      <c r="B65" s="65" t="s">
+      <c r="A65" s="59"/>
+      <c r="B65" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="C65" s="67"/>
-      <c r="D65" s="68"/>
+      <c r="C65" s="74"/>
+      <c r="D65" s="75"/>
       <c r="E65" s="35" t="s">
         <v>74</v>
       </c>
       <c r="F65" s="4"/>
-      <c r="G65" s="67"/>
-      <c r="H65" s="68"/>
-      <c r="I65" s="79"/>
-      <c r="J65" s="67"/>
-      <c r="K65" s="68"/>
+      <c r="G65" s="74"/>
+      <c r="H65" s="75"/>
+      <c r="I65" s="80"/>
+      <c r="J65" s="74"/>
+      <c r="K65" s="75"/>
       <c r="L65" s="3"/>
     </row>
     <row r="66" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="83"/>
-      <c r="B66" s="66"/>
-      <c r="C66" s="69"/>
-      <c r="D66" s="70"/>
+      <c r="A66" s="60"/>
+      <c r="B66" s="73"/>
+      <c r="C66" s="76"/>
+      <c r="D66" s="77"/>
       <c r="E66" s="14"/>
       <c r="F66" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="G66" s="69"/>
-      <c r="H66" s="70"/>
-      <c r="I66" s="80"/>
-      <c r="J66" s="69"/>
-      <c r="K66" s="70"/>
+      <c r="G66" s="76"/>
+      <c r="H66" s="77"/>
+      <c r="I66" s="81"/>
+      <c r="J66" s="76"/>
+      <c r="K66" s="77"/>
       <c r="L66" s="3"/>
     </row>
     <row r="67" spans="1:12" ht="7.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="60" t="s">
+      <c r="A67" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="B67" s="92" t="s">
+      <c r="B67" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C67" s="94"/>
-      <c r="D67" s="95"/>
-      <c r="E67" s="94"/>
-      <c r="F67" s="95"/>
-      <c r="G67" s="63"/>
-      <c r="H67" s="64"/>
+      <c r="C67" s="44"/>
+      <c r="D67" s="45"/>
+      <c r="E67" s="44"/>
+      <c r="F67" s="45"/>
+      <c r="G67" s="67"/>
+      <c r="H67" s="68"/>
       <c r="I67" s="14"/>
       <c r="J67" s="15"/>
       <c r="K67" s="16"/>
       <c r="L67" s="17"/>
     </row>
     <row r="68" spans="1:12" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="61"/>
-      <c r="B68" s="93"/>
-      <c r="C68" s="96"/>
-      <c r="D68" s="97"/>
-      <c r="E68" s="96"/>
-      <c r="F68" s="97"/>
+      <c r="A68" s="70"/>
+      <c r="B68" s="57"/>
+      <c r="C68" s="46"/>
+      <c r="D68" s="47"/>
+      <c r="E68" s="46"/>
+      <c r="F68" s="47"/>
       <c r="G68" s="21"/>
       <c r="H68" s="22"/>
       <c r="I68" s="34"/>
@@ -3253,52 +3299,52 @@
       <c r="L68" s="17"/>
     </row>
     <row r="69" spans="1:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="61"/>
-      <c r="B69" s="65" t="s">
+      <c r="A69" s="70"/>
+      <c r="B69" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="C69" s="102"/>
-      <c r="D69" s="103"/>
-      <c r="E69" s="67"/>
-      <c r="F69" s="68"/>
-      <c r="G69" s="88" t="s">
+      <c r="C69" s="52"/>
+      <c r="D69" s="53"/>
+      <c r="E69" s="74"/>
+      <c r="F69" s="75"/>
+      <c r="G69" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="H69" s="89"/>
-      <c r="I69" s="48" t="s">
+      <c r="H69" s="63"/>
+      <c r="I69" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="J69" s="88" t="s">
+      <c r="J69" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="K69" s="89" t="s">
+      <c r="K69" s="63" t="s">
         <v>17</v>
       </c>
       <c r="L69" s="17"/>
     </row>
     <row r="70" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="61"/>
-      <c r="B70" s="66"/>
-      <c r="C70" s="104"/>
-      <c r="D70" s="105"/>
-      <c r="E70" s="69"/>
-      <c r="F70" s="70"/>
-      <c r="G70" s="90"/>
-      <c r="H70" s="91"/>
-      <c r="I70" s="50"/>
-      <c r="J70" s="90"/>
-      <c r="K70" s="91"/>
+      <c r="A70" s="70"/>
+      <c r="B70" s="73"/>
+      <c r="C70" s="54"/>
+      <c r="D70" s="55"/>
+      <c r="E70" s="76"/>
+      <c r="F70" s="77"/>
+      <c r="G70" s="62"/>
+      <c r="H70" s="64"/>
+      <c r="I70" s="79"/>
+      <c r="J70" s="62"/>
+      <c r="K70" s="64"/>
       <c r="L70" s="3"/>
     </row>
     <row r="71" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="61"/>
-      <c r="B71" s="92" t="s">
+      <c r="A71" s="70"/>
+      <c r="B71" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="C71" s="102"/>
-      <c r="D71" s="103"/>
-      <c r="E71" s="94"/>
-      <c r="F71" s="95"/>
+      <c r="C71" s="52"/>
+      <c r="D71" s="53"/>
+      <c r="E71" s="44"/>
+      <c r="F71" s="45"/>
       <c r="G71" s="38"/>
       <c r="H71" s="39"/>
       <c r="I71" s="2"/>
@@ -3307,16 +3353,16 @@
       <c r="L71" s="3"/>
     </row>
     <row r="72" spans="1:12" ht="7.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="61"/>
-      <c r="B72" s="93"/>
-      <c r="C72" s="104"/>
-      <c r="D72" s="105"/>
-      <c r="E72" s="96"/>
-      <c r="F72" s="97"/>
-      <c r="G72" s="58" t="s">
+      <c r="A72" s="70"/>
+      <c r="B72" s="57"/>
+      <c r="C72" s="54"/>
+      <c r="D72" s="55"/>
+      <c r="E72" s="46"/>
+      <c r="F72" s="47"/>
+      <c r="G72" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="H72" s="59"/>
+      <c r="H72" s="66"/>
       <c r="I72" s="8" t="s">
         <v>77</v>
       </c>
@@ -3329,14 +3375,14 @@
       <c r="L72" s="17"/>
     </row>
     <row r="73" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="61"/>
-      <c r="B73" s="92" t="s">
+      <c r="A73" s="70"/>
+      <c r="B73" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="94"/>
-      <c r="D73" s="95"/>
-      <c r="E73" s="94"/>
-      <c r="F73" s="95"/>
+      <c r="C73" s="44"/>
+      <c r="D73" s="45"/>
+      <c r="E73" s="44"/>
+      <c r="F73" s="45"/>
       <c r="G73" s="9"/>
       <c r="H73" s="10"/>
       <c r="I73" s="8"/>
@@ -3345,14 +3391,14 @@
       <c r="L73" s="17"/>
     </row>
     <row r="74" spans="1:12" ht="4.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="62"/>
-      <c r="B74" s="93"/>
-      <c r="C74" s="96"/>
-      <c r="D74" s="97"/>
-      <c r="E74" s="96"/>
-      <c r="F74" s="97"/>
-      <c r="G74" s="63"/>
-      <c r="H74" s="64"/>
+      <c r="A74" s="71"/>
+      <c r="B74" s="57"/>
+      <c r="C74" s="46"/>
+      <c r="D74" s="47"/>
+      <c r="E74" s="46"/>
+      <c r="F74" s="47"/>
+      <c r="G74" s="67"/>
+      <c r="H74" s="68"/>
       <c r="I74" s="14"/>
       <c r="J74" s="15"/>
       <c r="K74" s="16"/>
@@ -3381,143 +3427,49 @@
       <c r="L75" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="200">
-    <mergeCell ref="E41:F42"/>
-    <mergeCell ref="E43:F44"/>
-    <mergeCell ref="E47:F48"/>
-    <mergeCell ref="E53:F54"/>
-    <mergeCell ref="E55:F56"/>
-    <mergeCell ref="E59:F60"/>
-    <mergeCell ref="E61:F62"/>
-    <mergeCell ref="E67:F68"/>
-    <mergeCell ref="E71:F72"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="C61:D62"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="C69:D70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="A33:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:D44"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A43:A54"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:D10"/>
-    <mergeCell ref="E9:F10"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="C35:D36"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="E13:F14"/>
-    <mergeCell ref="E15:F16"/>
-    <mergeCell ref="E37:F38"/>
-    <mergeCell ref="J69:J70"/>
-    <mergeCell ref="K69:K70"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="E73:F74"/>
-    <mergeCell ref="A67:A74"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="E69:F70"/>
-    <mergeCell ref="G69:H70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="G63:H64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="J63:J64"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="G65:H66"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="J65:J66"/>
-    <mergeCell ref="K65:K66"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="A55:A66"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="G57:H58"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="G51:H52"/>
-    <mergeCell ref="G39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="E45:F46"/>
-    <mergeCell ref="G45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="E33:F34"/>
-    <mergeCell ref="G33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="G29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="E31:F32"/>
-    <mergeCell ref="G31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="K31:K32"/>
+  <mergeCells count="203">
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="G15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A9:A18"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F12"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="G17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F20"/>
+    <mergeCell ref="G19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="C20:D20"/>
     <mergeCell ref="A21:A32"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C21:D22"/>
@@ -3542,46 +3494,143 @@
     <mergeCell ref="J27:J28"/>
     <mergeCell ref="K27:K28"/>
     <mergeCell ref="B29:B30"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="G29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="E31:F32"/>
+    <mergeCell ref="G31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="G33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="G51:H52"/>
+    <mergeCell ref="G39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="E45:F46"/>
+    <mergeCell ref="G45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="A55:A66"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:H58"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G63:H64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="G65:H66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="J65:J66"/>
+    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="J69:J70"/>
+    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="E73:F74"/>
+    <mergeCell ref="A67:A74"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="E69:F70"/>
+    <mergeCell ref="G69:H70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="E9:F10"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="C35:D36"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="E13:F14"/>
+    <mergeCell ref="E15:F16"/>
+    <mergeCell ref="E37:F38"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="E33:F34"/>
+    <mergeCell ref="B37:B38"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="G17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F20"/>
-    <mergeCell ref="G19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="G15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:K6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A9:A18"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F12"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A33:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:D44"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="A43:A54"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="C61:D62"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="C69:D70"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E41:F42"/>
+    <mergeCell ref="E43:F44"/>
+    <mergeCell ref="E47:F48"/>
+    <mergeCell ref="E53:F54"/>
+    <mergeCell ref="E55:F56"/>
+    <mergeCell ref="E59:F60"/>
+    <mergeCell ref="E61:F62"/>
+    <mergeCell ref="E67:F68"/>
+    <mergeCell ref="E71:F72"/>
+    <mergeCell ref="E49:F49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
